--- a/Income/WST_inc.xlsx
+++ b/Income/WST_inc.xlsx
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2400000.0</v>
+        <v>2500000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1400000.0</v>
@@ -2235,16 +2235,16 @@
         <v>0.3558</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.3478</v>
+        <v>0.3464</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3421</v>
+        <v>0.3406</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3331</v>
+        <v>0.3316</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3308</v>
+        <v>0.3292</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.3269</v>
@@ -2362,16 +2362,16 @@
         <v>0.1895</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1807</v>
+        <v>0.1811</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1729</v>
+        <v>0.1733</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1659</v>
+        <v>0.1663</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1608</v>
+        <v>0.1612</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1587</v>
@@ -2489,16 +2489,16 @@
         <v>0.1869</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1781</v>
+        <v>0.1785</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1697</v>
+        <v>0.1701</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.163</v>
+        <v>0.1634</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1582</v>
+        <v>0.1586</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.1564</v>
@@ -2616,16 +2616,16 @@
         <v>0.1613</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1527</v>
+        <v>0.153</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1466</v>
+        <v>0.1469</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1377</v>
+        <v>0.1381</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.131</v>
+        <v>0.1314</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1283</v>
@@ -2743,16 +2743,16 @@
         <v>0.1389</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.1333</v>
+        <v>0.1336</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.1422</v>
+        <v>0.1425</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.1305</v>
+        <v>0.1308</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.1306</v>
+        <v>0.1309</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0.1196</v>
@@ -3763,16 +3763,16 @@
         <v>0.2492</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2395</v>
+        <v>0.2399</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.2268</v>
+        <v>0.2272</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2191</v>
+        <v>0.2195</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.217</v>
+        <v>0.2174</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2164</v>
@@ -3890,16 +3890,16 @@
         <v>0.2201</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.2107</v>
+        <v>0.2112</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.2153</v>
+        <v>0.2158</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1991</v>
+        <v>0.1996</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1991</v>
+        <v>0.1996</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.1864</v>
